--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
@@ -43,6 +43,9 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>defective</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
@@ -79,31 +82,67 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>beautiful</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>charm</t>
-  </si>
-  <si>
-    <t>beautifully</t>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>salad</t>
@@ -112,451 +151,412 @@
     <t>cakes</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>wedding</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>sauce</t>
-  </si>
-  <si>
-    <t>bun</t>
-  </si>
-  <si>
-    <t>wedding</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>handy</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>cooke</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>garlic</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
     <t>nicely</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>mas</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>decor</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>butter</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>super</t>
+  </si>
+  <si>
+    <t>owned</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>dough</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>owned</t>
-  </si>
-  <si>
-    <t>super</t>
+    <t>house</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>baking</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>hen</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
   <si>
     <t>durable</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>days</t>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>grip</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>wash</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>liked</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>maker</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>making</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>easier</t>
   </si>
   <si>
     <t>ice</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>cu</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>brand</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>far</t>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
     <t>cup</t>
   </si>
   <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>little</t>
+    <t>food</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>food</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>another</t>
   </si>
   <si>
     <t>purchase</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>keep</t>
+    <t>time</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>came</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>would</t>
@@ -920,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q165"/>
+  <dimension ref="A1:Q164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -928,7 +928,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>182</v>
@@ -1010,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>0.9655172413793104</v>
@@ -1039,13 +1039,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.946236559139785</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1089,13 +1089,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1139,13 +1139,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4716981132075472</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1157,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.890625</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1189,13 +1189,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3798449612403101</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>554</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>554</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1239,37 +1239,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3116883116883117</v>
+        <v>0.4031007751937984</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D8">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>77</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8">
-        <v>0.04</v>
-      </c>
-      <c r="F8">
-        <v>0.96</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>53</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K8">
-        <v>0.8421052631578947</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L8">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="M8">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1289,37 +1289,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.303030303030303</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8076923076923077</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1339,13 +1339,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1675675675675676</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1357,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.7894736842105263</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1389,13 +1389,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1666666666666667</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1407,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.7894736842105263</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1439,37 +1439,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1470588235294118</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
       <c r="E12">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7662337662337663</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1481,21 +1481,45 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="B13">
+        <v>0.145631067961165</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>88</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1507,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.7397260273972602</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L14">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M14">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1533,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.734375</v>
+        <v>0.7152542372881356</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1559,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="L16">
         <v>32</v>
       </c>
-      <c r="K16">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L16">
-        <v>28</v>
-      </c>
       <c r="M16">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1585,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>0.6875</v>
+      </c>
+      <c r="L17">
         <v>33</v>
       </c>
-      <c r="K17">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L17">
-        <v>165</v>
-      </c>
       <c r="M17">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1611,21 +1635,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1637,21 +1661,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.711864406779661</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="L19">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1663,21 +1687,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.7076923076923077</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1689,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.6938775510204082</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1715,21 +1739,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.6875</v>
+        <v>0.6637239165329053</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>827</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>827</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1741,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.6843373493975904</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L23">
-        <v>852</v>
+        <v>47</v>
       </c>
       <c r="M23">
-        <v>853</v>
+        <v>47</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1764,24 +1788,24 @@
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>393</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6842105263157895</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.676056338028169</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L25">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1819,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1845,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.6628571428571428</v>
+        <v>0.65625</v>
       </c>
       <c r="L27">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1871,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.6571428571428571</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1897,12 +1921,12 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>0.6428571428571429</v>
@@ -1928,16 +1952,16 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.6176470588235294</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1949,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.6153846153846154</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1980,16 +2004,16 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2001,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.6</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2027,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.5925925925925926</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2053,21 +2077,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.5873015873015873</v>
+        <v>0.5903614457831325</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2079,21 +2103,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.5865384615384616</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L36">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2105,21 +2129,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.5808383233532934</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L37">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2131,21 +2155,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2157,21 +2181,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.5726495726495726</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L39">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M39">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2183,21 +2207,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.5694444444444444</v>
+        <v>0.575</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2209,21 +2233,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.5692307692307692</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2235,21 +2259,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.5686274509803921</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2261,21 +2285,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.5641025641025641</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2287,21 +2311,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.5555555555555556</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="L44">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M44">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2313,21 +2337,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.5526315789473685</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="L45">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2339,21 +2363,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.55</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2365,21 +2389,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.5357142857142857</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2391,21 +2415,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.5245901639344263</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L48">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M48">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2417,21 +2441,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.5151515151515151</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2443,21 +2467,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.5128205128205128</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2469,21 +2493,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.5060240963855421</v>
+        <v>0.48</v>
       </c>
       <c r="L51">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M51">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2495,21 +2519,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.5</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2521,21 +2545,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>0.5</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2547,21 +2571,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K54">
-        <v>0.492063492063492</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2573,21 +2597,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K55">
-        <v>0.4887218045112782</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L55">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2599,21 +2623,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K56">
-        <v>0.4868421052631579</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L56">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="M56">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2625,21 +2649,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>39</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K57">
-        <v>0.48</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="L57">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2651,21 +2675,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K58">
-        <v>0.4736842105263158</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2677,21 +2701,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K59">
-        <v>0.4693877551020408</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L59">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2703,21 +2727,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K60">
-        <v>0.427710843373494</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L60">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M60">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2729,21 +2753,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K61">
-        <v>0.425531914893617</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2755,21 +2779,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K62">
-        <v>0.4246575342465753</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L62">
-        <v>310</v>
+        <v>51</v>
       </c>
       <c r="M62">
-        <v>310</v>
+        <v>51</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2781,21 +2805,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>420</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K63">
-        <v>0.4215686274509804</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L63">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="M63">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2807,21 +2831,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>236</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K64">
-        <v>0.4202334630350195</v>
+        <v>0.3796296296296297</v>
       </c>
       <c r="L64">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="M64">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2833,21 +2857,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>0.4181818181818182</v>
+        <v>0.3735408560311284</v>
       </c>
       <c r="L65">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2859,21 +2883,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>32</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K66">
-        <v>0.4146341463414634</v>
+        <v>0.3731138545953361</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2882,24 +2906,24 @@
         <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K67">
-        <v>0.4047619047619048</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2911,21 +2935,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K68">
-        <v>0.391304347826087</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2937,21 +2961,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K69">
-        <v>0.3833333333333334</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L69">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2963,47 +2987,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K70">
-        <v>0.3762376237623762</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L70">
+        <v>21</v>
+      </c>
+      <c r="M70">
+        <v>21</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
         <v>38</v>
-      </c>
-      <c r="M70">
-        <v>38</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>63</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K71">
-        <v>0.3741007194244604</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="L71">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M71">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3015,47 +3039,47 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K72">
-        <v>0.3734939759036144</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="L72">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M72">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N72">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73">
-        <v>0.3695652173913043</v>
+        <v>0.3453237410071943</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M73">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3067,21 +3091,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>0.3676470588235294</v>
+        <v>0.34375</v>
       </c>
       <c r="L74">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M74">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3093,47 +3117,47 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K75">
-        <v>0.3636363636363636</v>
+        <v>0.325782092772384</v>
       </c>
       <c r="L75">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="M75">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>133</v>
+        <v>625</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K76">
-        <v>0.3611111111111111</v>
+        <v>0.3253588516746411</v>
       </c>
       <c r="L76">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="M76">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3145,21 +3169,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>69</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K77">
-        <v>0.3513513513513514</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L77">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M77">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3171,21 +3195,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K78">
-        <v>0.3488372093023256</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="L78">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M78">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3197,47 +3221,47 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K79">
-        <v>0.34375</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L79">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M79">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K80">
-        <v>0.3423423423423423</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L80">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M80">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3249,21 +3273,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K81">
-        <v>0.3308270676691729</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L81">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M81">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3275,21 +3299,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K82">
-        <v>0.328125</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L82">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M82">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3301,21 +3325,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K83">
-        <v>0.3178807947019868</v>
+        <v>0.3</v>
       </c>
       <c r="L83">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="M83">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3327,21 +3351,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>103</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K84">
-        <v>0.3137254901960784</v>
+        <v>0.2946708463949843</v>
       </c>
       <c r="L84">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="M84">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3353,21 +3377,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>35</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K85">
-        <v>0.3067814854682454</v>
+        <v>0.2913907284768212</v>
       </c>
       <c r="L85">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="M85">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3379,21 +3403,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>644</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K86">
-        <v>0.3055555555555556</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="L86">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M86">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3405,99 +3429,99 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K87">
-        <v>0.3018867924528302</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="L87">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M87">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N87">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K88">
-        <v>0.2941176470588235</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L88">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M88">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K89">
-        <v>0.2916666666666667</v>
+        <v>0.2785622593068036</v>
       </c>
       <c r="L89">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="M89">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>51</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K90">
-        <v>0.2878787878787879</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="L90">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M90">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3509,21 +3533,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K91">
-        <v>0.2705882352941176</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L91">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M91">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3535,21 +3559,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K92">
-        <v>0.2675496688741722</v>
+        <v>0.265625</v>
       </c>
       <c r="L92">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="M92">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3561,21 +3585,21 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>553</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K93">
-        <v>0.2666666666666667</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="L93">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M93">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3587,21 +3611,21 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K94">
-        <v>0.2664576802507837</v>
+        <v>0.2568807339449541</v>
       </c>
       <c r="L94">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="M94">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3613,21 +3637,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>234</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K95">
-        <v>0.2608695652173913</v>
+        <v>0.2398523985239852</v>
       </c>
       <c r="L95">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M95">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3639,21 +3663,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>68</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K96">
-        <v>0.2550335570469799</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="L96">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M96">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3665,73 +3689,73 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>111</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K97">
-        <v>0.2542372881355932</v>
+        <v>0.2326732673267327</v>
       </c>
       <c r="L97">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="M97">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
-        <v>44</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K98">
-        <v>0.2473118279569892</v>
+        <v>0.2265625</v>
       </c>
       <c r="L98">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M98">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K99">
-        <v>0.2461538461538462</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="L99">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M99">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3743,21 +3767,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K100">
-        <v>0.2424242424242424</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L100">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M100">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3769,47 +3793,47 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K101">
-        <v>0.2419974391805378</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L101">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="M101">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="N101">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>592</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K102">
-        <v>0.2368421052631579</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="L102">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M102">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3821,21 +3845,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K103">
-        <v>0.2325581395348837</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L103">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M103">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3847,21 +3871,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K104">
-        <v>0.23</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L104">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M104">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3873,73 +3897,73 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K105">
-        <v>0.227027027027027</v>
+        <v>0.21</v>
       </c>
       <c r="L105">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="M105">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="N105">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>286</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K106">
-        <v>0.2232142857142857</v>
+        <v>0.2086720867208672</v>
       </c>
       <c r="L106">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="M106">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="N106">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O106">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>87</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K107">
-        <v>0.2222222222222222</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="L107">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="M107">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3951,21 +3975,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>91</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K108">
-        <v>0.2213114754098361</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="L108">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M108">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3977,21 +4001,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K109">
-        <v>0.2181818181818182</v>
+        <v>0.2039473684210526</v>
       </c>
       <c r="L109">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="M109">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -4003,21 +4027,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>129</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K110">
-        <v>0.2110091743119266</v>
+        <v>0.1984732824427481</v>
       </c>
       <c r="L110">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M110">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -4029,21 +4053,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K111">
-        <v>0.2093023255813954</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="L111">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M111">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -4055,47 +4079,47 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K112">
-        <v>0.208955223880597</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L112">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M112">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N112">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O112">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>159</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K113">
-        <v>0.2061068702290076</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L113">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M113">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -4107,15 +4131,15 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K114">
-        <v>0.2051282051282051</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L114">
         <v>32</v>
@@ -4133,47 +4157,47 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K115">
-        <v>0.2048192771084337</v>
+        <v>0.1947115384615385</v>
       </c>
       <c r="L115">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="M115">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
-        <v>66</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K116">
-        <v>0.2039473684210526</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="L116">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M116">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4185,53 +4209,53 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>363</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K117">
+        <v>0.1840490797546012</v>
+      </c>
+      <c r="L117">
+        <v>30</v>
+      </c>
+      <c r="M117">
+        <v>30</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117">
         <v>133</v>
-      </c>
-      <c r="K117">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="L117">
-        <v>32</v>
-      </c>
-      <c r="M117">
-        <v>33</v>
-      </c>
-      <c r="N117">
-        <v>0.97</v>
-      </c>
-      <c r="O117">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P117" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q117">
-        <v>130</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K118">
-        <v>0.1971153846153846</v>
+        <v>0.1833740831295844</v>
       </c>
       <c r="L118">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M118">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N118">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O118">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P118" t="b">
         <v>1</v>
@@ -4242,16 +4266,16 @@
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K119">
-        <v>0.1970802919708029</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="L119">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="M119">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -4263,21 +4287,21 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>330</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K120">
-        <v>0.1932773109243698</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L120">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M120">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -4289,21 +4313,21 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>192</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K121">
-        <v>0.1931818181818182</v>
+        <v>0.180672268907563</v>
       </c>
       <c r="L121">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M121">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4315,21 +4339,21 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>71</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K122">
-        <v>0.1923076923076923</v>
+        <v>0.1757575757575758</v>
       </c>
       <c r="L122">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M122">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4341,47 +4365,47 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>84</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K123">
-        <v>0.1890660592255125</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L123">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="M123">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="N123">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>356</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K124">
-        <v>0.1890034364261168</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="L124">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M124">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -4393,21 +4417,21 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>236</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K125">
-        <v>0.1864406779661017</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L125">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M125">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -4419,21 +4443,21 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>144</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K126">
-        <v>0.1845018450184502</v>
+        <v>0.1638418079096045</v>
       </c>
       <c r="L126">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M126">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -4445,21 +4469,21 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>221</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K127">
-        <v>0.1825396825396825</v>
+        <v>0.160377358490566</v>
       </c>
       <c r="L127">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M127">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -4471,73 +4495,73 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K128">
-        <v>0.1823899371069182</v>
+        <v>0.1592592592592593</v>
       </c>
       <c r="L128">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M128">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N128">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O128">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>130</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K129">
-        <v>0.1740740740740741</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L129">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="M129">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129">
-        <v>223</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K130">
-        <v>0.1707317073170732</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L130">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M130">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -4549,99 +4573,99 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K131">
-        <v>0.1592920353982301</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="L131">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M131">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N131">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O131">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K132">
-        <v>0.1586538461538461</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L132">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M132">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K133">
-        <v>0.1578947368421053</v>
+        <v>0.1504854368932039</v>
       </c>
       <c r="L133">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M133">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q133">
-        <v>80</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K134">
-        <v>0.1532258064516129</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="L134">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M134">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -4653,21 +4677,21 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>210</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K135">
-        <v>0.1458333333333333</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="L135">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M135">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -4679,64 +4703,64 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K136">
-        <v>0.1448087431693989</v>
+        <v>0.1467391304347826</v>
       </c>
       <c r="L136">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="M136">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O136">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q136">
-        <v>313</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="10:17">
       <c r="J137" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K137">
-        <v>0.1428571428571428</v>
+        <v>0.1438356164383562</v>
       </c>
       <c r="L137">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M137">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N137">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O137">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P137" t="b">
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="10:17">
       <c r="J138" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K138">
         <v>0.1376146788990826</v>
@@ -4762,10 +4786,10 @@
     </row>
     <row r="139" spans="10:17">
       <c r="J139" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K139">
-        <v>0.1372549019607843</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L139">
         <v>21</v>
@@ -4783,99 +4807,99 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="10:17">
       <c r="J140" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K140">
-        <v>0.1363636363636364</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="L140">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M140">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N140">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O140">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q140">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="10:17">
       <c r="J141" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K141">
-        <v>0.1303939962476548</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L141">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="M141">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="N141">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O141">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q141">
-        <v>927</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142" spans="10:17">
       <c r="J142" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K142">
-        <v>0.1298701298701299</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="L142">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="M142">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="N142">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O142">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q142">
-        <v>603</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143" spans="10:17">
       <c r="J143" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K143">
-        <v>0.125</v>
+        <v>0.1283973758200562</v>
       </c>
       <c r="L143">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="M143">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="N143">
         <v>0.96</v>
@@ -4887,47 +4911,47 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>161</v>
+        <v>930</v>
       </c>
     </row>
     <row r="144" spans="10:17">
       <c r="J144" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K144">
-        <v>0.1241830065359477</v>
+        <v>0.1253602305475504</v>
       </c>
       <c r="L144">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="M144">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="N144">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O144">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q144">
-        <v>134</v>
+        <v>607</v>
       </c>
     </row>
     <row r="145" spans="10:17">
       <c r="J145" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K145">
-        <v>0.1218274111675127</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="L145">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M145">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -4939,99 +4963,99 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="10:17">
       <c r="J146" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K146">
-        <v>0.1208053691275168</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L146">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M146">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N146">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O146">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q146">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147" spans="10:17">
       <c r="J147" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K147">
-        <v>0.1205673758865248</v>
+        <v>0.1045918367346939</v>
       </c>
       <c r="L147">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M147">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N147">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="O147">
-        <v>0.1899999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P147" t="b">
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>124</v>
+        <v>351</v>
       </c>
     </row>
     <row r="148" spans="10:17">
       <c r="J148" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K148">
-        <v>0.1176470588235294</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="L148">
         <v>16</v>
       </c>
       <c r="M148">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N148">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O148">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q148">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="10:17">
       <c r="J149" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K149">
-        <v>0.1164383561643836</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="L149">
+        <v>16</v>
+      </c>
+      <c r="M149">
         <v>17</v>
-      </c>
-      <c r="M149">
-        <v>18</v>
       </c>
       <c r="N149">
         <v>0.9399999999999999</v>
@@ -5043,21 +5067,21 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="10:17">
       <c r="J150" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K150">
-        <v>0.1139705882352941</v>
+        <v>0.0996309963099631</v>
       </c>
       <c r="L150">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M150">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -5069,21 +5093,21 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>241</v>
+        <v>488</v>
       </c>
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K151">
-        <v>0.1071428571428571</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="L151">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M151">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -5095,73 +5119,73 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>125</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="10:17">
       <c r="J152" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K152">
-        <v>0.1056338028169014</v>
+        <v>0.08897485493230174</v>
       </c>
       <c r="L152">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M152">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="N152">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O152">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q152">
-        <v>127</v>
+        <v>471</v>
       </c>
     </row>
     <row r="153" spans="10:17">
       <c r="J153" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K153">
-        <v>0.0970873786407767</v>
+        <v>0.08544027898866609</v>
       </c>
       <c r="L153">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="M153">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="N153">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="O153">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P153" t="b">
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>372</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="154" spans="10:17">
       <c r="J154" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K154">
-        <v>0.09595959595959595</v>
+        <v>0.08368200836820083</v>
       </c>
       <c r="L154">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M154">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N154">
         <v>1</v>
@@ -5173,293 +5197,267 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="10:17">
       <c r="J155" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K155">
-        <v>0.09090909090909091</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="L155">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M155">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N155">
-        <v>0.9399999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="O155">
-        <v>0.06000000000000005</v>
+        <v>0.23</v>
       </c>
       <c r="P155" t="b">
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>330</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" spans="10:17">
       <c r="J156" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K156">
-        <v>0.09040590405904059</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="L156">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M156">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="N156">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O156">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q156">
-        <v>493</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="10:17">
       <c r="J157" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K157">
-        <v>0.08445297504798464</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="L157">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M157">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N157">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="O157">
-        <v>0.02000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="P157" t="b">
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>477</v>
+        <v>318</v>
       </c>
     </row>
     <row r="158" spans="10:17">
       <c r="J158" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K158">
-        <v>0.08405797101449275</v>
+        <v>0.06887052341597796</v>
       </c>
       <c r="L158">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M158">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N158">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O158">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q158">
-        <v>316</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="10:17">
       <c r="J159" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K159">
-        <v>0.08216783216783216</v>
+        <v>0.06128133704735376</v>
       </c>
       <c r="L159">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="M159">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="N159">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="O159">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="P159" t="b">
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>1050</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="10:17">
       <c r="J160" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K160">
-        <v>0.07531380753138076</v>
+        <v>0.05867970660146699</v>
       </c>
       <c r="L160">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M160">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N160">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O160">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q160">
-        <v>221</v>
+        <v>385</v>
       </c>
     </row>
     <row r="161" spans="10:17">
       <c r="J161" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K161">
-        <v>0.06811989100817439</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L161">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M161">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N161">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="O161">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="P161" t="b">
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>342</v>
+        <v>720</v>
       </c>
     </row>
     <row r="162" spans="10:17">
       <c r="J162" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K162">
-        <v>0.05802047781569966</v>
+        <v>0.04871060171919771</v>
       </c>
       <c r="L162">
         <v>17</v>
       </c>
       <c r="M162">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N162">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="O162">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="P162" t="b">
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>276</v>
+        <v>332</v>
       </c>
     </row>
     <row r="163" spans="10:17">
       <c r="J163" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K163">
-        <v>0.04645476772616137</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="L163">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M163">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N163">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O163">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P163" t="b">
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="10:17">
       <c r="J164" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K164">
-        <v>0.03571428571428571</v>
+        <v>0.03419972640218878</v>
       </c>
       <c r="L164">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M164">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N164">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="O164">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="P164" t="b">
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="165" spans="10:17">
-      <c r="J165" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K165">
-        <v>0.03163686382393398</v>
-      </c>
-      <c r="L165">
-        <v>23</v>
-      </c>
-      <c r="M165">
-        <v>31</v>
-      </c>
-      <c r="N165">
-        <v>0.74</v>
-      </c>
-      <c r="O165">
-        <v>0.26</v>
-      </c>
-      <c r="P165" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q165">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
